--- a/data/trans_camb/DC-Clase-trans_camb.xlsx
+++ b/data/trans_camb/DC-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.10636161397223</v>
+        <v>-12.75370952137434</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.843374161726812</v>
+        <v>-9.658605763340276</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.472163970616292</v>
+        <v>-2.806530062854884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.12897801559817</v>
+        <v>-7.917383965340137</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.02077775838571</v>
+        <v>-14.62111491913309</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.757415670464615</v>
+        <v>6.846064461660148</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.981641681016258</v>
+        <v>-9.176756614204461</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-10.36939060124658</v>
+        <v>-10.36904789109437</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.976356356146154</v>
+        <v>3.993812123817703</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.019698381879276</v>
+        <v>-4.094014288550494</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2912576927131196</v>
+        <v>-0.7816575652939661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.795082414838823</v>
+        <v>6.776552183479952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.437420259912831</v>
+        <v>4.877132055157954</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.103226977752461</v>
+        <v>-3.232465163500136</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.40596815744716</v>
+        <v>19.16574079580491</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.396400248380138</v>
+        <v>-1.729457612263771</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.151670842876558</v>
+        <v>-3.317594293028898</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.62758926794841</v>
+        <v>11.72793546926441</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6611058534734139</v>
+        <v>-0.6907880905660277</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.54953020390709</v>
+        <v>-0.5345337231255612</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1374138598417503</v>
+        <v>-0.1531823477261739</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3343895086982691</v>
+        <v>-0.3380891229196191</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6086465099101734</v>
+        <v>-0.5975438337962872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3000234738206948</v>
+        <v>0.2666240669758823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4463770525733238</v>
+        <v>-0.4597295742154333</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.507110028325045</v>
+        <v>-0.5127647452401197</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1893643679504625</v>
+        <v>0.1992173749210591</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2694118798516563</v>
+        <v>-0.2988626825161855</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02207454257458799</v>
+        <v>-0.05134274855569345</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4873550679731618</v>
+        <v>0.4732901084558506</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2957621803053804</v>
+        <v>0.2739175703973416</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1636140228645743</v>
+        <v>-0.1679103896838267</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.098883842430884</v>
+        <v>1.075950734090397</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07642352980972578</v>
+        <v>-0.1079662239095936</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.186717435249121</v>
+        <v>-0.2003314089328724</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7179248061758804</v>
+        <v>0.7419754842905042</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-5.452666952324927</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.713068364945502</v>
+        <v>7.713068364945499</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-10.37279136542742</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.281726733442899</v>
+        <v>-6.646217684109848</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.51578941778228</v>
+        <v>-9.650961726519139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.72385988992062</v>
+        <v>2.779661089584314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-17.09360053619697</v>
+        <v>-16.60021646132746</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-17.98825415814519</v>
+        <v>-18.82265756564157</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4577033217753642</v>
+        <v>0.5960909224442315</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-10.6273745005223</v>
+        <v>-10.87184857315137</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-12.70763873647926</v>
+        <v>-13.1361207478683</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.373724777080662</v>
+        <v>2.383041771671177</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.821705370699635</v>
+        <v>1.949577891052274</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.06956742574426</v>
+        <v>-1.206469067499898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.18766492645875</v>
+        <v>12.4374161384414</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.347371678133564</v>
+        <v>-3.449951488051661</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-6.45291100207538</v>
+        <v>-6.206922437519164</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.27843250016122</v>
+        <v>13.70789499781188</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-2.932043839853527</v>
+        <v>-3.030970551131546</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-5.12028973539752</v>
+        <v>-4.995890944955052</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.38857946683834</v>
+        <v>10.48797281165266</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4783228759482386</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6766114774593081</v>
+        <v>0.6766114774593078</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3518110694259277</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4616637846843951</v>
+        <v>-0.477802469831107</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6937021415545902</v>
+        <v>-0.7073911598102122</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1713578341533556</v>
+        <v>0.1733243727066888</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5274182986708077</v>
+        <v>-0.5092492890393725</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5660149003118223</v>
+        <v>-0.5745866358861187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01520767926090563</v>
+        <v>0.01808366903741117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.472199893560692</v>
+        <v>-0.4717655933585759</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5655808908971961</v>
+        <v>-0.5740950574702909</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1101463225189219</v>
+        <v>0.1039178372217513</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3094321175229479</v>
+        <v>0.2369471594929712</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.09072988145303716</v>
+        <v>-0.08973586485451544</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.299002660954133</v>
+        <v>1.381857177008376</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1724901704911172</v>
+        <v>-0.1281755864015575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.243213866757428</v>
+        <v>-0.2319993283057732</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5089723439680499</v>
+        <v>0.5456873534131902</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1540902665657542</v>
+        <v>-0.1583504086949903</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2758984650993326</v>
+        <v>-0.2622126860895974</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5641568655139437</v>
+        <v>0.5619428449358419</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-11.428443863773</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.481179773366234</v>
+        <v>4.481179773366229</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-7.697751311847642</v>
@@ -1083,7 +1083,7 @@
         <v>-5.761655149869754</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>14.7699456790371</v>
+        <v>14.76994567903711</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-7.765309149941305</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.31153100920599</v>
+        <v>-13.29730522201221</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.99591008037181</v>
+        <v>-15.86162638746081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8060103840516657</v>
+        <v>-0.6778061038490335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.46106541557987</v>
+        <v>-17.75081855909759</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-15.56633423552715</v>
+        <v>-15.20218710507534</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.255491856888092</v>
+        <v>5.201662732662523</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-11.87555929748616</v>
+        <v>-11.66017699268894</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-14.1152508532665</v>
+        <v>-13.61462507897946</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.110992681534867</v>
+        <v>3.541459876835648</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.511016004420147</v>
+        <v>-4.573239273433265</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.259052528185251</v>
+        <v>-6.915101689241168</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.271480374668222</v>
+        <v>9.70642187179299</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.366977626410466</v>
+        <v>0.5062025376897975</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.522361418983304</v>
+        <v>4.069262879405391</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>24.07820196005634</v>
+        <v>24.45501450722294</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-4.040805382721573</v>
+        <v>-3.497119084629302</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-6.036105010299898</v>
+        <v>-5.506518855239819</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.87665630674529</v>
+        <v>12.48857386076448</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5649247715763299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2215113002292534</v>
+        <v>0.2215113002292531</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2530414580058819</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1893978592691378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4855195287406806</v>
+        <v>0.4855195287406808</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3430258200258611</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.570920229215632</v>
+        <v>-0.5827220325317666</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6986439719700237</v>
+        <v>-0.6931161379041251</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03603093672258546</v>
+        <v>-0.02692902918693684</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4506742801628063</v>
+        <v>-0.4620010131589846</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4450520973467339</v>
+        <v>-0.4388808996113102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09361251361675064</v>
+        <v>0.1355055328423886</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4789576076795999</v>
+        <v>-0.4755128853644201</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5643064684594492</v>
+        <v>-0.5511789217673708</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1196867980974606</v>
+        <v>0.1505391554383435</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.2365640875822696</v>
+        <v>-0.2472715057729911</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4138365966040367</v>
+        <v>-0.4005632436619769</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5145512451956922</v>
+        <v>0.5525626681851609</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07823336558896325</v>
+        <v>0.02921955312129226</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.193850209085877</v>
+        <v>0.1540606697542205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9919626184712662</v>
+        <v>0.9816311499803565</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.196669880493136</v>
+        <v>-0.1721936116883777</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2847797626431632</v>
+        <v>-0.2849134067821603</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.592005133410014</v>
+        <v>0.64412545046558</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-11.46390645466342</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.519857298534477</v>
+        <v>4.519857298534488</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.66887850874912</v>
+        <v>-11.55233336199477</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.01138326727942</v>
+        <v>-14.05726977231752</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.689607314235325</v>
+        <v>-1.492890337635001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-12.95242595690594</v>
+        <v>-12.60818497562272</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-17.2824099743614</v>
+        <v>-17.51464828843462</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.011789639977946</v>
+        <v>1.832421151555803</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-10.81931341548253</v>
+        <v>-10.5938712811992</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-13.69088125021213</v>
+        <v>-13.84891341470657</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.825046215527956</v>
+        <v>1.777817043033202</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.408527918853666</v>
+        <v>-5.468843264873267</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.916416608369256</v>
+        <v>-8.205524105290635</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.307870537384963</v>
+        <v>5.450844209967157</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.99807651517829</v>
+        <v>-3.911888608229999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-8.364675517254584</v>
+        <v>-8.408036130651791</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.91582839447727</v>
+        <v>11.02157254116112</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-5.262784434869461</v>
+        <v>-5.632808857027297</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-8.88653026378277</v>
+        <v>-9.036589621877681</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.364461916180709</v>
+        <v>7.851678112018575</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.4632074270313449</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1826281013442263</v>
+        <v>0.1826281013442267</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5047586440676759</v>
+        <v>-0.5023499038086079</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6027770986798605</v>
+        <v>-0.6061635118083428</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07367106553497071</v>
+        <v>-0.06788710116247697</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4074718827583905</v>
+        <v>-0.3887460806693352</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5344824544818003</v>
+        <v>-0.53949607301832</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06170667904522449</v>
+        <v>0.05674603493931415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4143495260719007</v>
+        <v>-0.407317675376287</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.531082189061329</v>
+        <v>-0.5292183171437664</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.07047762744773813</v>
+        <v>0.06568141371025096</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2695687019245579</v>
+        <v>-0.2750887092402325</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4017257046298015</v>
+        <v>-0.4091994226476138</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2673502883628317</v>
+        <v>0.2627962630119984</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1452172081077383</v>
+        <v>-0.1423014094006641</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3103642305640268</v>
+        <v>-0.3021834329147716</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4088244474909628</v>
+        <v>0.3978385996253742</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2316478123403224</v>
+        <v>-0.238079782750973</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3750045620113806</v>
+        <v>-0.3809408893437662</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3137924447008302</v>
+        <v>0.3370735912600462</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-6.688370643612415</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.822002211044459</v>
+        <v>3.822002211044462</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.02827904200685682</v>
@@ -1520,7 +1520,7 @@
         <v>-6.25329146761793</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>12.05069376899173</v>
+        <v>12.05069376899172</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-15.66113823883395</v>
+        <v>-15.97453821097199</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.69053871964894</v>
+        <v>-11.62646401545965</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.883191648128017</v>
+        <v>-1.789463037631432</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.041573840008772</v>
+        <v>-5.26567341396651</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.486943934874768</v>
+        <v>-9.657785900903935</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.94522719525835</v>
+        <v>13.13468858179114</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.253828683926411</v>
+        <v>-8.050698130969876</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-9.537798621422684</v>
+        <v>-9.579359978187371</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.263721096888242</v>
+        <v>8.385506807612643</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.139604709178275</v>
+        <v>-6.288011598025219</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.05970121275768</v>
+        <v>-1.875252066576217</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.412808676111274</v>
+        <v>9.552258990689547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.877476824181809</v>
+        <v>5.155455627964159</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2113375000474788</v>
+        <v>0.3270340916459152</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>22.78593047845041</v>
+        <v>22.35055508407055</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.095510328630647</v>
+        <v>-0.7886211913602069</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.740598538114494</v>
+        <v>-2.475637159518945</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.56041608899883</v>
+        <v>15.85284983396192</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3329507336798143</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1902613518448526</v>
+        <v>0.1902613518448527</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.001016515667432709</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2514250138250737</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4845201704030975</v>
+        <v>0.4845201704030973</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6784928206587117</v>
+        <v>-0.6723193173936832</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4990997377322518</v>
+        <v>-0.4952342999629626</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08456314255841738</v>
+        <v>-0.07989941064495235</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1676022783346051</v>
+        <v>-0.169838057662736</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3150508131151297</v>
+        <v>-0.3203099830550366</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4222134640124669</v>
+        <v>0.4242666482615666</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3112596755578296</v>
+        <v>-0.2944767436844579</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3576577907484377</v>
+        <v>-0.355294169560704</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3006602810651035</v>
+        <v>0.3088161935240545</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3520930161923673</v>
+        <v>-0.3495079051356295</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1187029599017159</v>
+        <v>-0.1094311231229921</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5327214844049275</v>
+        <v>0.5637589621880867</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2012166347054499</v>
+        <v>0.2108243581603013</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.009159396358247793</v>
+        <v>0.0122615041148552</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9418856106597014</v>
+        <v>0.8950880707658805</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.04840243037970172</v>
+        <v>-0.03079208482724514</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1222516464958294</v>
+        <v>-0.1093313927002361</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6783065160840328</v>
+        <v>0.7123770472223838</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.127815932250201</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8.602501836581016</v>
+        <v>8.602501836581014</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-2.068548433949646</v>
@@ -1725,7 +1725,7 @@
         <v>-9.991654157994212</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>8.542556123693746</v>
+        <v>8.542556123693752</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.51900695602572</v>
@@ -1734,7 +1734,7 @@
         <v>-8.561201618740313</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>7.883946760239965</v>
+        <v>7.88394676023996</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.849298783517056</v>
+        <v>-1.642998609099786</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.340943074455358</v>
+        <v>-3.334513883069397</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.802364355986452</v>
+        <v>3.140529315278442</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.738151921807455</v>
+        <v>-5.728655171989325</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.40553962624046</v>
+        <v>-13.24380961984376</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.672848388516925</v>
+        <v>4.740011126669899</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.804658116609851</v>
+        <v>-4.40773782609268</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-11.50036348173334</v>
+        <v>-11.21153367972978</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.298475162221753</v>
+        <v>4.391755408744762</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.410486811902323</v>
+        <v>4.424508376493252</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.80245218897213</v>
+        <v>0.8355711557471828</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16.05803095077779</v>
+        <v>16.00653136076371</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.67224612106118</v>
+        <v>1.606702270308352</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-6.334390533471286</v>
+        <v>-6.625517605867313</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.60819172655077</v>
+        <v>12.71898327322936</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.56988982712443</v>
+        <v>1.726596517426503</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-5.703796170175333</v>
+        <v>-5.622607107054443</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>11.50966574753596</v>
+        <v>11.91495781462166</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.506159460551426</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>3.860769798054713</v>
+        <v>3.860769798054712</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.07522539956546834</v>
@@ -1830,7 +1830,7 @@
         <v>-0.363359234920087</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3106609384476918</v>
+        <v>0.310660938447692</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.06713292175515985</v>
@@ -1839,7 +1839,7 @@
         <v>-0.3783646125655462</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3484331515912254</v>
+        <v>0.3484331515912251</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6141433409577043</v>
+        <v>-0.6283608556395611</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9376403415826533</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.05614332288011</v>
+        <v>0.7204531811118061</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1974122871554572</v>
+        <v>-0.1975301990195119</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.464806108731839</v>
+        <v>-0.4539860339108212</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1637583360819713</v>
+        <v>0.1645286951056345</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2004987265372991</v>
+        <v>-0.1834067322782427</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4708784555636851</v>
+        <v>-0.4690061430848</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1811721349401407</v>
+        <v>0.1857331691008759</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.653455158922422</v>
+        <v>3.904315995043591</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.238497366919427</v>
+        <v>1.136782498254163</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>13.51121958263433</v>
+        <v>12.65869116005691</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.06349507949452819</v>
+        <v>0.06501834312446957</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2479543174796397</v>
+        <v>-0.2556460618295706</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4870484034843419</v>
+        <v>0.50572270122868</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07282506914022331</v>
+        <v>0.08473838034974167</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2625437420209945</v>
+        <v>-0.2640199159434016</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5394452385238639</v>
+        <v>0.5604501789889624</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.85705964908504</v>
+        <v>-8.934977042370573</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.695674992732236</v>
+        <v>-9.639492546752898</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.045501419201423</v>
+        <v>1.771877268191113</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.081486412491066</v>
+        <v>-6.153661109713306</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-11.55017301075484</v>
+        <v>-11.57382295378511</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>8.735477433339145</v>
+        <v>8.886058327512037</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-7.004880566116996</v>
+        <v>-6.886022182599581</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-10.16232440103131</v>
+        <v>-10.1266221385784</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>6.155872862335513</v>
+        <v>6.259680587154612</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-5.40108154697031</v>
+        <v>-5.553989648299165</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-6.316730645252722</v>
+        <v>-6.302473029319944</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.862436427533519</v>
+        <v>5.705879558440364</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-2.063386699869683</v>
+        <v>-1.897190280469141</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-7.479724719787932</v>
+        <v>-7.436488286907189</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>12.79221657359983</v>
+        <v>12.9241231784564</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-4.318025230872262</v>
+        <v>-4.11653046150612</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-7.375759140607357</v>
+        <v>-7.421904349161262</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.948570976904143</v>
+        <v>9.140478446590688</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4791331162617438</v>
+        <v>-0.4839922801633025</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5267146353005163</v>
+        <v>-0.525100630880515</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1115975908203893</v>
+        <v>0.09736977592461128</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2084909716323063</v>
+        <v>-0.2096473042038161</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3989395291659883</v>
+        <v>-0.4008268327399032</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3009763908635916</v>
+        <v>0.3038406073641905</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.300896205920316</v>
+        <v>-0.293402937721135</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4334066408428439</v>
+        <v>-0.4327820970949876</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2616610989694572</v>
+        <v>0.2652553664457877</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.3253497601124682</v>
+        <v>-0.332356620899483</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.3810555373201041</v>
+        <v>-0.3757366710355697</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3590033370063826</v>
+        <v>0.3417743642813136</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.07713212157445772</v>
+        <v>-0.06969483940268326</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.2768197556783586</v>
+        <v>-0.2775759946474477</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4800209807748058</v>
+        <v>0.4791080954363274</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.1956221891693309</v>
+        <v>-0.1881242548348793</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.3349800388130152</v>
+        <v>-0.3403051921079526</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4042755040301643</v>
+        <v>0.4147271848743186</v>
       </c>
     </row>
     <row r="46">
